--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/181.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/181.xlsx
@@ -479,13 +479,13 @@
         <v>-3.74232501023435</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.71429786232376</v>
+        <v>-14.68663382641919</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05517367801412573</v>
+        <v>-0.07833396174113914</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.19604259657524</v>
+        <v>-11.15914848716726</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.422289212513523</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.86682319042987</v>
+        <v>-14.84186926121354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0157080495709792</v>
+        <v>-0.01059438683804847</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.90085044440284</v>
+        <v>-10.8664176879291</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.986787509229126</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.22983347132241</v>
+        <v>-15.20252292759457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05197372844256041</v>
+        <v>0.02776606048820891</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.53769614817904</v>
+        <v>-10.50023906974887</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.500932256154276</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.74121882032023</v>
+        <v>-15.71122435450983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1817708188154326</v>
+        <v>0.1540282290938151</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.35226986303168</v>
+        <v>-10.31318933904913</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.981991128880705</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.22732293253068</v>
+        <v>-16.19523369826561</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1723312684665481</v>
+        <v>0.1458979090291032</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.19466472142298</v>
+        <v>-10.15394765958521</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.46881846507171</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.80119784299205</v>
+        <v>-16.76408116443576</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3122225243303912</v>
+        <v>0.2777504909481265</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.04681334543137</v>
+        <v>-10.00643668346748</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.9917026413478189</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.38982777875606</v>
+        <v>-17.34842991717052</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4598644234765361</v>
+        <v>0.4289534964672208</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.841290375421952</v>
+        <v>-9.80107082109217</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.5797341084986319</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.12020807738743</v>
+        <v>-18.07332454091121</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7400135196837905</v>
+        <v>0.7050701633992236</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.878472515492454</v>
+        <v>-9.837559069112059</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2525723127853101</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.60491131319381</v>
+        <v>-18.55483325482421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7793427974203356</v>
+        <v>0.74873299337638</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.53127773643272</v>
+        <v>-9.492053197118908</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.01713309006474497</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.21137296542825</v>
+        <v>-19.15738030850897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9048456124611217</v>
+        <v>0.8742489007200078</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.484957168978694</v>
+        <v>-9.444187737929559</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.126988998822218</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.75907636250902</v>
+        <v>-19.70376138300272</v>
       </c>
       <c r="F12" t="n">
-        <v>1.065619091357518</v>
+        <v>1.031016134946836</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.993799427871339</v>
+        <v>-8.952480120102852</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1945654967284064</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.57341759926438</v>
+        <v>-20.51540560537269</v>
       </c>
       <c r="F13" t="n">
-        <v>1.251870191583913</v>
+        <v>1.214727328421936</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.505037578184023</v>
+        <v>-8.458559903095894</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2024405665323392</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.40555127558164</v>
+        <v>-21.34718578951323</v>
       </c>
       <c r="F14" t="n">
-        <v>1.575132241048971</v>
+        <v>1.533760564069117</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.052554499671128</v>
+        <v>-7.999740150007605</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1797280890340436</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.22989503170809</v>
+        <v>-22.17007630002424</v>
       </c>
       <c r="F15" t="n">
-        <v>1.689087644983355</v>
+        <v>1.646040153239759</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.615297769363161</v>
+        <v>-7.556919190991904</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1514018340421256</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.08631492979675</v>
+        <v>-23.02811964366528</v>
       </c>
       <c r="F16" t="n">
-        <v>1.968425018414422</v>
+        <v>1.923649342695719</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.034248276944516</v>
+        <v>-6.980072327785454</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1443531958382047</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.6986157490986</v>
+        <v>-23.64180824706835</v>
       </c>
       <c r="F17" t="n">
-        <v>2.159336978452472</v>
+        <v>2.113854318380315</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.948847185507937</v>
+        <v>-6.892838313951033</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.175424267353197</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.51189650932378</v>
+        <v>-24.45343937713547</v>
       </c>
       <c r="F18" t="n">
-        <v>2.578212115570655</v>
+        <v>2.527832934235694</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.547712118740292</v>
+        <v>-6.491847262514646</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2538328288797687</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.363721009115</v>
+        <v>-25.3025668625413</v>
       </c>
       <c r="F19" t="n">
-        <v>2.84380257101791</v>
+        <v>2.792716405329496</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.243119693127535</v>
+        <v>-6.189873297470235</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3746200286133433</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.11690809929666</v>
+        <v>-26.05567539890591</v>
       </c>
       <c r="F20" t="n">
-        <v>3.065559996551067</v>
+        <v>3.014578569285386</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.134100087364482</v>
+        <v>-6.074373001800527</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5172721926906456</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.70107355979164</v>
+        <v>-26.63959210564689</v>
       </c>
       <c r="F21" t="n">
-        <v>3.38210569465832</v>
+        <v>3.333088112818897</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.801594872093164</v>
+        <v>-5.745834754290254</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6505510365000623</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.28773965012939</v>
+        <v>-27.22574759617381</v>
       </c>
       <c r="F22" t="n">
-        <v>3.585900480692628</v>
+        <v>3.541229543396658</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.659635032380329</v>
+        <v>-5.596490855774684</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7343703922154675</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.73341473116458</v>
+        <v>-27.6742113377143</v>
       </c>
       <c r="F23" t="n">
-        <v>3.768145336249455</v>
+        <v>3.724207567912622</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.45947990653602</v>
+        <v>-5.398731621350412</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7358274802354797</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.96325010755108</v>
+        <v>-27.9033266374445</v>
       </c>
       <c r="F24" t="n">
-        <v>3.904305285803406</v>
+        <v>3.859870009958587</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.297567397292394</v>
+        <v>-5.23594192781639</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6267054872695577</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.22952136274611</v>
+        <v>-28.17152246115726</v>
       </c>
       <c r="F25" t="n">
-        <v>4.219777415077637</v>
+        <v>4.174923185541884</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.003016767959242</v>
+        <v>-4.943433697726547</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.3981896891103114</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.18919706999359</v>
+        <v>-28.13161712209568</v>
       </c>
       <c r="F26" t="n">
-        <v>4.382645662428709</v>
+        <v>4.333549526772236</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.008070396856148</v>
+        <v>-4.946209265928992</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.04878834268101619</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.08013818732201</v>
+        <v>-28.02452208485036</v>
       </c>
       <c r="F27" t="n">
-        <v>4.333994665068855</v>
+        <v>4.287935943671663</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.820064928048962</v>
+        <v>-4.764828502359719</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.4032542288386226</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.02982446750126</v>
+        <v>-27.97238853493461</v>
       </c>
       <c r="F28" t="n">
-        <v>4.311344981152669</v>
+        <v>4.26963290429893</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.733550990870835</v>
+        <v>-4.682621932816521</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.9348146071125778</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.81467865490318</v>
+        <v>-27.76081692101231</v>
       </c>
       <c r="F29" t="n">
-        <v>4.299012031875763</v>
+        <v>4.258504446883463</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.612787589458755</v>
+        <v>-4.564228238218792</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.508658386838445</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.66822815531563</v>
+        <v>-27.61593749776577</v>
       </c>
       <c r="F30" t="n">
-        <v>4.200086591603681</v>
+        <v>4.163192482195697</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.566244452856418</v>
+        <v>-4.517986224581816</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.088734314993159</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.22263162809748</v>
+        <v>-27.1724357390023</v>
       </c>
       <c r="F31" t="n">
-        <v>4.053976491890018</v>
+        <v>4.019150966331027</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.655115004546055</v>
+        <v>-4.611897312865517</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.634624033555831</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.8453638294103</v>
+        <v>-26.79745909331243</v>
       </c>
       <c r="F32" t="n">
-        <v>3.967174524049374</v>
+        <v>3.934286659310958</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.735004236486267</v>
+        <v>-4.692284052313715</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.115437173765562</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.42566387721309</v>
+        <v>-26.37779841802374</v>
       </c>
       <c r="F33" t="n">
-        <v>3.833633035063768</v>
+        <v>3.801425970073122</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.666871892497925</v>
+        <v>-4.635188519620947</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.506521976321924</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.9386040268952</v>
+        <v>-25.89230964404685</v>
       </c>
       <c r="F34" t="n">
-        <v>3.703050406520393</v>
+        <v>3.673383248281041</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.485137636751925</v>
+        <v>-4.458547169680379</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.797923894300903</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.5305824088328</v>
+        <v>-25.48694576346133</v>
       </c>
       <c r="F35" t="n">
-        <v>3.464089695053208</v>
+        <v>3.433636998643354</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.489445004386853</v>
+        <v>-4.467607043246854</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.989438822671072</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.84167852560402</v>
+        <v>-24.79775384957003</v>
       </c>
       <c r="F36" t="n">
-        <v>3.245029283905448</v>
+        <v>3.219551662575449</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.758020504882022</v>
+        <v>-4.7385915274649</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.091899529424338</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.36204201099738</v>
+        <v>-24.32061796480616</v>
       </c>
       <c r="F37" t="n">
-        <v>3.115048901292791</v>
+        <v>3.088314418889987</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.750466246142346</v>
+        <v>-4.735318451754469</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.121655706671758</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.94624356504701</v>
+        <v>-23.9069273796133</v>
       </c>
       <c r="F38" t="n">
-        <v>3.041889113013226</v>
+        <v>3.015940168780925</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.895096915634894</v>
+        <v>-4.878037645032125</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.099736320198268</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.44622233491581</v>
+        <v>-23.4080975490407</v>
       </c>
       <c r="F39" t="n">
-        <v>3.013871584931932</v>
+        <v>2.987320394768912</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.765195086839287</v>
+        <v>-4.751317245827058</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.04814817416258</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.06274878468165</v>
+        <v>-23.02584158297082</v>
       </c>
       <c r="F40" t="n">
-        <v>3.10525585876718</v>
+        <v>3.073258270622002</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.75026986159972</v>
+        <v>-4.739861480840547</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.988594282997246</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.53210465820365</v>
+        <v>-22.49596990236049</v>
       </c>
       <c r="F41" t="n">
-        <v>3.121176099022719</v>
+        <v>3.092634878827756</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.678236011364543</v>
+        <v>-4.667997830542313</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.939613083641283</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.85508858595515</v>
+        <v>-21.82195196746274</v>
       </c>
       <c r="F42" t="n">
-        <v>3.215859633174082</v>
+        <v>3.188863304714443</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.705913139571952</v>
+        <v>-4.694837051367852</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.916114481165333</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.19188489320468</v>
+        <v>-21.1593243360373</v>
       </c>
       <c r="F43" t="n">
-        <v>3.334214050863286</v>
+        <v>3.306851137924078</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.750034200148568</v>
+        <v>-4.736431297496015</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.926632360726803</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.90216532362012</v>
+        <v>-20.87142459654775</v>
       </c>
       <c r="F44" t="n">
-        <v>3.24049934712221</v>
+        <v>3.215335941060413</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.801028719717092</v>
+        <v>-4.789075447222595</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.975550483567492</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.41526258093633</v>
+        <v>-20.3869832067982</v>
       </c>
       <c r="F45" t="n">
-        <v>3.368018376800622</v>
+        <v>3.34031506398753</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.748541677624612</v>
+        <v>-4.738408235225116</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.06046137645759</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.08775862535055</v>
+        <v>-20.05820929783678</v>
       </c>
       <c r="F46" t="n">
-        <v>3.395983535670549</v>
+        <v>3.368961022605227</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.722317795032635</v>
+        <v>-4.718730504054002</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.177029274657268</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.54359015003705</v>
+        <v>-19.51720915981097</v>
       </c>
       <c r="F47" t="n">
-        <v>3.403446148290333</v>
+        <v>3.377680496297816</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.991993048966508</v>
+        <v>-4.990513618745393</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.317061624699854</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.06835264918523</v>
+        <v>-19.04295358167228</v>
       </c>
       <c r="F48" t="n">
-        <v>3.332564420705228</v>
+        <v>3.308657875716237</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.107179129368014</v>
+        <v>-5.106275760471935</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.474050291259076</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.68256176134809</v>
+        <v>-18.6528815108059</v>
       </c>
       <c r="F49" t="n">
-        <v>3.351469706008681</v>
+        <v>3.328060668527674</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.396008422359333</v>
+        <v>-5.393272131065412</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.642754573077871</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.16765458288585</v>
+        <v>-18.13937520874772</v>
       </c>
       <c r="F50" t="n">
-        <v>3.494018699349394</v>
+        <v>3.466027355873784</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.309468300575523</v>
+        <v>-5.315713329031027</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.819996584376417</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.50318093675972</v>
+        <v>-17.47360542464027</v>
       </c>
       <c r="F51" t="n">
-        <v>3.511693308185724</v>
+        <v>3.481659565466805</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.522270590964939</v>
+        <v>-5.52872509626591</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.006809786373021</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.11072606677614</v>
+        <v>-17.08198846203855</v>
       </c>
       <c r="F52" t="n">
-        <v>3.339791371873861</v>
+        <v>3.312454643540337</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.816035682127588</v>
+        <v>-5.814922836386041</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.20295323686867</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.72121696493195</v>
+        <v>-16.69076426852209</v>
       </c>
       <c r="F53" t="n">
-        <v>3.373883728473716</v>
+        <v>3.3482751841153</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845755209578306</v>
+        <v>-5.846108701755034</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.412347921082842</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.52561796047656</v>
+        <v>-16.49111974248861</v>
       </c>
       <c r="F54" t="n">
-        <v>3.108502749871928</v>
+        <v>3.084046328163584</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.021728852073947</v>
+        <v>-6.025041204692903</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.632651245374659</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.236147144646</v>
+        <v>-16.19922685063233</v>
       </c>
       <c r="F55" t="n">
-        <v>2.961397635142294</v>
+        <v>2.936208044474813</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.163112630461747</v>
+        <v>-6.170090827876386</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.865041869496026</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.90818495846076</v>
+        <v>-15.86728460438321</v>
       </c>
       <c r="F56" t="n">
-        <v>2.907719193491217</v>
+        <v>2.88247723361237</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.475246222511338</v>
+        <v>-6.476398345161409</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.101393539839952</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.3614242071846</v>
+        <v>-15.32085116067809</v>
       </c>
       <c r="F57" t="n">
-        <v>2.945660687126539</v>
+        <v>2.916281559549706</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.732575434865463</v>
+        <v>-6.734225065023521</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.337652253016195</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.16026097402148</v>
+        <v>-15.11721348227788</v>
       </c>
       <c r="F58" t="n">
-        <v>2.78781988406669</v>
+        <v>2.757393372262519</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708773628299205</v>
+        <v>-6.709441335744134</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.561519341035423</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.81635236297502</v>
+        <v>-14.77169451798189</v>
       </c>
       <c r="F59" t="n">
-        <v>2.915181806111001</v>
+        <v>2.880853788059996</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.818303833873086</v>
+        <v>-6.820346233116395</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.766371974980501</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.76183601394207</v>
+        <v>-14.71423240080955</v>
       </c>
       <c r="F60" t="n">
-        <v>2.734089073204246</v>
+        <v>2.699813424364607</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823697862643877</v>
+        <v>-6.823580031918302</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.939085230249817</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.41735134157057</v>
+        <v>-14.37055945121424</v>
       </c>
       <c r="F61" t="n">
-        <v>2.620238407692596</v>
+        <v>2.585543805162022</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.232570480390982</v>
+        <v>-7.228446404995839</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.076690977061011</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.21267937124587</v>
+        <v>-14.16099095962673</v>
       </c>
       <c r="F62" t="n">
-        <v>2.57467719380339</v>
+        <v>2.538306776509075</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176509239622711</v>
+        <v>-7.177347147004582</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.170913400553337</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.89389488935268</v>
+        <v>-13.84178752404261</v>
       </c>
       <c r="F63" t="n">
-        <v>2.502172020665911</v>
+        <v>2.466011080217063</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.379295918338206</v>
+        <v>-7.375944288810724</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.223337053576077</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.70770925064049</v>
+        <v>-13.65266920949388</v>
       </c>
       <c r="F64" t="n">
-        <v>2.414296483992245</v>
+        <v>2.376695390230808</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.392479867299825</v>
+        <v>-7.397821526859249</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.232420023077175</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.51852547457755</v>
+        <v>-13.46233331078086</v>
       </c>
       <c r="F65" t="n">
-        <v>2.168292113596213</v>
+        <v>2.139305755104631</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742057445476752</v>
+        <v>-7.741468291848874</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.201061707113783</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.30344512349368</v>
+        <v>-13.24619248316681</v>
       </c>
       <c r="F66" t="n">
-        <v>2.101861768977294</v>
+        <v>2.072744487457296</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.784397952866894</v>
+        <v>-7.787815043908584</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.129617957006772</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.13393907860185</v>
+        <v>-13.07611037694994</v>
       </c>
       <c r="F67" t="n">
-        <v>2.381853757550448</v>
+        <v>2.34105814189563</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.864954892252035</v>
+        <v>-7.862480447014948</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.0223744828406</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.08501314288232</v>
+        <v>-13.0250765804729</v>
       </c>
       <c r="F68" t="n">
-        <v>2.088036297176432</v>
+        <v>2.055148432438016</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.762546899424054</v>
+        <v>-7.765924713557219</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.881059976861471</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.94489931787017</v>
+        <v>-12.88451761716413</v>
       </c>
       <c r="F69" t="n">
-        <v>2.150643689365566</v>
+        <v>2.108905427906143</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.834855688018907</v>
+        <v>-7.838246594454914</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.710972843774059</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.92389926411204</v>
+        <v>-12.85949822643359</v>
       </c>
       <c r="F70" t="n">
-        <v>2.148182336431321</v>
+        <v>2.10895779711751</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.74310482970409</v>
+        <v>-7.74818464320668</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.513660795145064</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.61713351622755</v>
+        <v>-12.55472250858105</v>
       </c>
       <c r="F71" t="n">
-        <v>2.104008906643338</v>
+        <v>2.063920275341972</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.448580384976621</v>
+        <v>-7.461293011035937</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.294538644273453</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.54897498763353</v>
+        <v>-12.48716622591774</v>
       </c>
       <c r="F72" t="n">
-        <v>2.11183810374269</v>
+        <v>2.073948979318734</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.514840529658597</v>
+        <v>-7.524332449218847</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.055847693790305</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.22693052233275</v>
+        <v>-12.18008626276506</v>
       </c>
       <c r="F73" t="n">
-        <v>2.087983927965065</v>
+        <v>2.049990065118376</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.245440214084399</v>
+        <v>-7.262695869229794</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.805087391549302</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.4289185705749</v>
+        <v>-12.38174700343616</v>
       </c>
       <c r="F74" t="n">
-        <v>2.111314411629021</v>
+        <v>2.074525040643771</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.196095324673934</v>
+        <v>-7.210051719503213</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.544153980812355</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.56180544441842</v>
+        <v>-12.51442440043421</v>
       </c>
       <c r="F75" t="n">
-        <v>2.043312990669095</v>
+        <v>2.006497435078161</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.125344520117245</v>
+        <v>-7.136302777595771</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.280258777345604</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.81868951847593</v>
+        <v>-12.7753801806755</v>
       </c>
       <c r="F76" t="n">
-        <v>2.022653336784852</v>
+        <v>1.988194395705429</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.775256342129491</v>
+        <v>-6.794030704404526</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.013424494010033</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.39346779783338</v>
+        <v>-13.35206993624785</v>
       </c>
       <c r="F77" t="n">
-        <v>2.016002446941255</v>
+        <v>1.980548490845861</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.720844731519277</v>
+        <v>-6.733701372909852</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.751159137515861</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.88482192348336</v>
+        <v>-13.84537481502124</v>
       </c>
       <c r="F78" t="n">
-        <v>2.067010058812619</v>
+        <v>2.030403980067153</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.739841662942622</v>
+        <v>-6.744816738022478</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.492727045397478</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.37320409638827</v>
+        <v>-14.33411048010288</v>
       </c>
       <c r="F79" t="n">
-        <v>2.111707180714272</v>
+        <v>2.075834270927943</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.645014113459999</v>
+        <v>-6.645917482356078</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.246833084584764</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.92139190867418</v>
+        <v>-14.88280889219962</v>
       </c>
       <c r="F80" t="n">
-        <v>1.998930084035644</v>
+        <v>1.968110803146221</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.291469567522029</v>
+        <v>-6.296758857870087</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.01459510262556</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.69320934579962</v>
+        <v>-15.65525475986145</v>
       </c>
       <c r="F81" t="n">
-        <v>2.098405401027079</v>
+        <v>2.065727013134131</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.234531142463362</v>
+        <v>-6.23686157236919</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.806327447932972</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.42173053742747</v>
+        <v>-16.38507208947063</v>
       </c>
       <c r="F82" t="n">
-        <v>2.068502581336576</v>
+        <v>2.039018715337009</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.133537118342288</v>
+        <v>-6.13666617872146</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.626657641294563</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.29848278182934</v>
+        <v>-17.26143156478725</v>
       </c>
       <c r="F83" t="n">
-        <v>2.050094803541109</v>
+        <v>2.019327891863053</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.837507058788019</v>
+        <v>-5.842455949262192</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.48681649436174</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.35187637617177</v>
+        <v>-18.31568925111724</v>
       </c>
       <c r="F84" t="n">
-        <v>2.060804307265641</v>
+        <v>2.033755609594635</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.727924484002772</v>
+        <v>-5.728919499018743</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.39538772698102</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.15080797248242</v>
+        <v>-19.11528855487282</v>
       </c>
       <c r="F85" t="n">
-        <v>2.087983927965065</v>
+        <v>2.059154677107584</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.592065657414181</v>
+        <v>-5.589434104542994</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.362813057932511</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.30060019264849</v>
+        <v>-20.26192553005403</v>
       </c>
       <c r="F86" t="n">
-        <v>2.075520055659742</v>
+        <v>2.047083573887512</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252896459996425</v>
+        <v>-5.252385860185598</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.39864654826326</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.36671950535309</v>
+        <v>-21.32770444288474</v>
       </c>
       <c r="F87" t="n">
-        <v>1.893929815245001</v>
+        <v>1.875862437323419</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.889846902195361</v>
+        <v>-4.893944792984821</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.508622719936517</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.70820922372771</v>
+        <v>-22.67025463778954</v>
       </c>
       <c r="F88" t="n">
-        <v>1.989163226115716</v>
+        <v>1.968896341316724</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661923002023753</v>
+        <v>-4.66183135590386</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.701095704481972</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.08676325144725</v>
+        <v>-24.05327314077812</v>
       </c>
       <c r="F89" t="n">
-        <v>1.857454659527952</v>
+        <v>1.833417191510543</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.276066652672402</v>
+        <v>-4.278305436458337</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.975253908538879</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.55532686120366</v>
+        <v>-25.52285795015618</v>
       </c>
       <c r="F90" t="n">
-        <v>1.641431662639472</v>
+        <v>1.620772008755228</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.164598786277946</v>
+        <v>-4.162700402365895</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.336736361571849</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.19841086784029</v>
+        <v>-27.16647874120932</v>
       </c>
       <c r="F91" t="n">
-        <v>1.435437369727754</v>
+        <v>1.416846299692503</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.061562362913562</v>
+        <v>-4.062897777803418</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.776647992322055</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.78913875541285</v>
+        <v>-28.76278394979245</v>
       </c>
       <c r="F92" t="n">
-        <v>1.311584184845025</v>
+        <v>1.294983144841717</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.79106229390066</v>
+        <v>-3.793641477560479</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.295550279335131</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.63682927085996</v>
+        <v>-30.61277871053971</v>
       </c>
       <c r="F93" t="n">
-        <v>1.172334451820427</v>
+        <v>1.156545134593305</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.780352790176127</v>
+        <v>-3.785589711312818</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.874544467140161</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.7125091479929</v>
+        <v>-32.69178403259444</v>
       </c>
       <c r="F94" t="n">
-        <v>1.05797318649795</v>
+        <v>1.043362176526583</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.773112746704653</v>
+        <v>-3.780614636232962</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.504608466832288</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.74141022707234</v>
+        <v>-34.72386654126443</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6539709054079668</v>
+        <v>0.6389933109570322</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.757873306196884</v>
+        <v>-3.766330933832639</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.163570023500538</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.71042711295374</v>
+        <v>-36.69538405698859</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4320956491492351</v>
+        <v>0.4141722865589121</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.972181211413098</v>
+        <v>-3.978740455136803</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.833064759916232</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.79749729355897</v>
+        <v>-38.78482394440818</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0484518989781361</v>
+        <v>0.0333826584073094</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.966106382894537</v>
+        <v>-3.977326486429896</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.501317313256987</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01613202542071</v>
+        <v>-41.00984772005668</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1594015009371069</v>
+        <v>-0.1772594020132213</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.166065124196219</v>
+        <v>-4.177625627605464</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.144332838607331</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.3936418522668</v>
+        <v>-43.38970106911144</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.08031089947023978</v>
+        <v>-0.09795932370088652</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.495310356059946</v>
+        <v>-4.506373351961205</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.778350429022858</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79614488523774</v>
+        <v>-45.79632817747753</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3531283060861276</v>
+        <v>-0.3643091327129617</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.676573288903644</v>
+        <v>-4.690830806698283</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.36334934108399</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19465476584196</v>
+        <v>-48.19506062723005</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2862004539592239</v>
+        <v>-0.3020814173062377</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.951131971797481</v>
+        <v>-4.969579026501473</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.97570752044046</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40826205341248</v>
+        <v>-50.41260869795593</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4336066916542177</v>
+        <v>-0.4483093477454761</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.310764438556855</v>
+        <v>-5.327156001714695</v>
       </c>
     </row>
   </sheetData>
